--- a/resources/template/accounting/_supply.xlsx
+++ b/resources/template/accounting/_supply.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -57,9 +57,6 @@
     <t>{amount}</t>
   </si>
   <si>
-    <t>Без налога НДС</t>
-  </si>
-  <si>
     <t>Всего к оплате</t>
   </si>
   <si>
@@ -88,6 +85,12 @@
   </si>
   <si>
     <t>{amount_text}</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>НДС</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,20 +176,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -195,9 +189,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -218,6 +209,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -229,9 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,189 +531,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="4" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="4" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="C6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="6">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>4</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="9" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="9" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="10" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="2:7" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="999" orientation="portrait" r:id="rId1"/>

--- a/resources/template/accounting/_supply.xlsx
+++ b/resources/template/accounting/_supply.xlsx
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +537,7 @@
   <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -566,14 +569,14 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>

--- a/resources/template/accounting/_supply.xlsx
+++ b/resources/template/accounting/_supply.xlsx
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,6 +243,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -251,8 +254,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H22"/>
+  <dimension ref="B2:BE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -551,7 +554,9 @@
     <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" customWidth="1"/>
     <col min="9" max="9" width="0.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="55" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="56" max="57" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -569,14 +574,14 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -585,14 +590,14 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
@@ -672,35 +677,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G16" s="8" t="s">
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="27" t="s">
         <v>12</v>
       </c>
+      <c r="G16" s="27"/>
       <c r="H16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
@@ -724,13 +730,14 @@
       <c r="H22" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="999" orientation="portrait" r:id="rId1"/>

--- a/resources/template/accounting/_supply.xlsx
+++ b/resources/template/accounting/_supply.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,9 +81,6 @@
     <t>{trader}</t>
   </si>
   <si>
-    <t>Заказ поставщику №{number} от {date}</t>
-  </si>
-  <si>
     <t>{amount_text}</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>НДС</t>
+  </si>
+  <si>
+    <t>Заказ поставщику № {number} от {date}</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -561,7 +561,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>13</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>

--- a/resources/template/accounting/_supply.xlsx
+++ b/resources/template/accounting/_supply.xlsx
@@ -144,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -176,6 +176,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -236,9 +245,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -255,6 +261,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -540,7 +549,7 @@
   <dimension ref="B2:BE22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H4"/>
+      <selection activeCell="D22" sqref="D22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -560,28 +569,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="4" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -590,14 +599,14 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
@@ -678,35 +687,35 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
@@ -721,13 +730,13 @@
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/resources/template/accounting/_supply.xlsx
+++ b/resources/template/accounting/_supply.xlsx
@@ -24,9 +24,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>Товары</t>
-  </si>
-  <si>
     <t>Кол-во</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Ответственный</t>
   </si>
   <si>
-    <t>{staff}</t>
-  </si>
-  <si>
     <t>{distributor}</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t>Заказ поставщику № {number} от {date}</t>
+  </si>
+  <si>
+    <t>Товар</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -245,6 +245,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -263,8 +266,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,18 +552,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BE22"/>
+  <dimension ref="B2:BF22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:H22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
@@ -569,81 +575,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="4" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="5">
@@ -661,10 +668,10 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -672,55 +679,55 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="9" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="B19" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -728,25 +735,26 @@
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D22:H22"/>
+  <mergeCells count="10">
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="999" orientation="portrait" r:id="rId1"/>
